--- a/2session/excelFilesAndScriptDB/DataDictionary_КузьминИВ.xlsx
+++ b/2session/excelFilesAndScriptDB/DataDictionary_КузьминИВ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFC3BE0-C628-4118-B721-0F331E3A1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A156EB-01E2-47AA-BB13-4A1A7486D8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDictionary" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="101">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Foreign Key to Cities</t>
   </si>
   <si>
-    <t>Schedule</t>
-  </si>
-  <si>
     <t>Activities</t>
   </si>
   <si>
@@ -313,6 +310,15 @@
   </si>
   <si>
     <t>Foreign Key to Client</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Foreign Key to Directions</t>
+  </si>
+  <si>
+    <t>meropriyatieandactivities</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -518,53 +524,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,8 +886,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -916,13 +901,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1">
       <c r="A3" s="20" t="s">
@@ -955,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>11</v>
@@ -970,10 +955,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>7</v>
@@ -982,7 +967,7 @@
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1011,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>11</v>
@@ -1026,10 +1011,10 @@
     <row r="11" spans="1:5">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
@@ -1067,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1082,10 +1067,10 @@
     <row r="16" spans="1:5" ht="15.6" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
@@ -1095,10 +1080,10 @@
     <row r="17" spans="1:5">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>7</v>
@@ -1108,22 +1093,22 @@
     <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -1132,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1">
@@ -1166,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>11</v>
@@ -1181,25 +1166,25 @@
     <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="23"/>
+      <c r="B25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="2"/>
@@ -1236,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1251,10 +1236,10 @@
     <row r="30" spans="1:5">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>7</v>
@@ -1263,7 +1248,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -1292,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>11</v>
@@ -1307,10 +1292,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>7</v>
@@ -1389,7 +1374,7 @@
     </row>
     <row r="42" spans="1:5" ht="20.399999999999999" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -1418,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>11</v>
@@ -1433,7 +1418,7 @@
     <row r="45" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>19</v>
@@ -1444,9 +1429,9 @@
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="30"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
@@ -1457,9 +1442,9 @@
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="30"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
@@ -1485,7 +1470,7 @@
     <row r="49" spans="1:5">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>13</v>
@@ -1500,7 +1485,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>13</v>
@@ -1509,13 +1494,13 @@
         <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>13</v>
@@ -1541,7 +1526,7 @@
     <row r="53" spans="1:5">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>13</v>
@@ -1556,7 +1541,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>13</v>
@@ -1569,15 +1554,15 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="29"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -1606,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>11</v>
@@ -1621,7 +1606,7 @@
     <row r="59" spans="1:5">
       <c r="A59" s="7"/>
       <c r="B59" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>19</v>
@@ -1632,9 +1617,9 @@
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="30"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -1645,9 +1630,9 @@
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="30"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
@@ -1662,10 +1647,10 @@
         <v>20</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>7</v>
@@ -1675,12 +1660,12 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="30"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>7</v>
@@ -1690,10 +1675,10 @@
     <row r="64" spans="1:5">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>7</v>
@@ -1705,25 +1690,25 @@
         <v>20</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>7</v>
@@ -1733,10 +1718,10 @@
     <row r="67" spans="1:5">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>7</v>
@@ -1744,14 +1729,14 @@
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="30"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="2"/>
@@ -1759,10 +1744,10 @@
     <row r="69" spans="1:5">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>7</v>
@@ -1771,7 +1756,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -1800,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>11</v>
@@ -1815,7 +1800,7 @@
     <row r="74" spans="1:5">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>19</v>
@@ -1826,9 +1811,9 @@
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="30"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>15</v>
@@ -1839,9 +1824,9 @@
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="30"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>15</v>
@@ -1856,10 +1841,10 @@
         <v>20</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>7</v>
@@ -1869,12 +1854,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A78" s="30"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>7</v>
@@ -1884,10 +1869,10 @@
     <row r="79" spans="1:5">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>7</v>
@@ -1899,25 +1884,25 @@
         <v>20</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>7</v>
@@ -1927,10 +1912,10 @@
     <row r="82" spans="1:5">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>7</v>
@@ -1942,27 +1927,27 @@
         <v>20</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="30"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="2"/>
@@ -1970,10 +1955,10 @@
     <row r="85" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>7</v>
@@ -1982,7 +1967,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -2011,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>11</v>
@@ -2024,129 +2009,127 @@
       </c>
     </row>
     <row r="90" spans="1:5">
+      <c r="A90" s="23"/>
       <c r="B90" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="23"/>
+      <c r="B91" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A92" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C92" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="7"/>
+      <c r="B93" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.8">
+      <c r="A96" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+    </row>
+    <row r="97" spans="1:5" ht="28.8">
+      <c r="A97" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A92" s="7" t="s">
+      <c r="C98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="31"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="34"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-    </row>
-    <row r="95" spans="1:5" ht="28.8">
-      <c r="A95" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="8" t="s">
+      <c r="B99" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>15</v>
@@ -2154,14 +2137,14 @@
       <c r="D99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>15</v>
@@ -2169,14 +2152,12 @@
       <c r="D100" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>15</v>
@@ -2187,9 +2168,11 @@
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="7"/>
+      <c r="A102" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="B102" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>15</v>
@@ -2197,14 +2180,14 @@
       <c r="D102" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>15</v>
@@ -2212,16 +2195,12 @@
       <c r="D103" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>15</v>
@@ -2229,16 +2208,14 @@
       <c r="D104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>15</v>
@@ -2255,7 +2232,7 @@
         <v>20</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>15</v>
@@ -2264,7 +2241,7 @@
         <v>7</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2272,7 +2249,7 @@
         <v>20</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>15</v>
@@ -2281,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2289,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>15</v>
@@ -2298,7 +2275,7 @@
         <v>7</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2306,7 +2283,7 @@
         <v>20</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>15</v>
@@ -2315,50 +2292,63 @@
         <v>7</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="26"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="29"/>
+      <c r="A110" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="22"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="36"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
+      <c r="A111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="24"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="25"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="22"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="26"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="35"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="24"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="26"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="29"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2session/excelFilesAndScriptDB/DataDictionary_КузьминИВ.xlsx
+++ b/2session/excelFilesAndScriptDB/DataDictionary_КузьминИВ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A156EB-01E2-47AA-BB13-4A1A7486D8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3083AE-3A01-412D-951C-8FA6D4756869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="102">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>meropriyatieandactivities</t>
+  </si>
+  <si>
+    <t>directionsid</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -538,18 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,7 +878,7 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -2035,19 +2026,19 @@
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="26" t="s">
+      <c r="D92" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2065,19 +2056,19 @@
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" s="29" t="s">
+      <c r="B94" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="26" t="s">
+      <c r="D94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>99</v>
       </c>
     </row>
